--- a/src/test/resources/data/ProductDetails.xlsx
+++ b/src/test/resources/data/ProductDetails.xlsx
@@ -14,16 +14,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Column 1</t>
+    <t>Title</t>
   </si>
   <si>
-    <t>Column 2</t>
+    <t>Price</t>
   </si>
   <si>
     <t>Puma Unisex Storm Origin Black Casual Sneakers</t>
   </si>
   <si>
-    <t>₹3149</t>
+    <t>₹3639</t>
   </si>
 </sst>
 </file>
@@ -76,9 +76,6 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/data/ProductDetails.xlsx
+++ b/src/test/resources/data/ProductDetails.xlsx
@@ -23,7 +23,7 @@
     <t>Puma Unisex Storm Origin Black Casual Sneakers</t>
   </si>
   <si>
-    <t>₹3149</t>
+    <t>₹3639</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/data/ProductDetails.xlsx
+++ b/src/test/resources/data/ProductDetails.xlsx
@@ -14,13 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Title</t>
+    <t>Column 1</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Column 2</t>
   </si>
   <si>
-    <t>Puma Unisex Storm Origin Black Casual Sneakers</t>
+    <t>Storm Origin Men's Sneakers</t>
   </si>
   <si>
     <t>₹3639</t>
@@ -76,6 +76,9 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/data/ProductDetails.xlsx
+++ b/src/test/resources/data/ProductDetails.xlsx
@@ -12,18 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Column 1</t>
   </si>
   <si>
-    <t>Column 2</t>
-  </si>
-  <si>
     <t>Storm Origin Men's Sneakers</t>
-  </si>
-  <si>
-    <t>₹3639</t>
   </si>
 </sst>
 </file>
@@ -68,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -78,16 +72,10 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
